--- a/pred_ohlcv/54_21/2019-10-30 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MCO ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>157.1641992399998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>266.0921992399998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>319.5013992399998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>68.4931992399998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>62.91349923999979</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>81.35999923999979</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>165.4924992399998</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>435.6841992399998</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1518.16511345</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1356.56181345</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2073.66181345</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1923.49311345</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1345.94351345</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1346.94351345</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1266.40211345</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-804.9965865499997</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>742.5374134500004</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>656.3582134500004</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-392.5131007600002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-382.9671007600002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-367.9671007600002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-366.3689007600001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-19.10680076000017</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-19.30680076000017</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-18.30680076000017</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-34.50680076000017</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-25.17090076000017</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-96.32330076000017</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-47.71840076000016</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>174.2815992399998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>147.6456992399998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>157.1641992399998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>266.0921992399998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>319.5013992399998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>311.3946992399998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>70.4931992399998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>145.4931992399998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>62.91349923999979</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>81.35999923999979</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1664.61719924</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>942.1932134499998</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1516.16511345</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1518.16511345</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1356.56181345</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2073.66181345</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1923.49311345</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1345.94351345</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1346.94351345</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1266.40211345</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1185.74431345</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-804.9965865499997</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>742.5374134500004</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>656.3582134500004</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>567.7082134500005</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>535.0082134500004</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
